--- a/Data/LoginUserData_web.xlsx
+++ b/Data/LoginUserData_web.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Password</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>******</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>

--- a/Data/LoginUserData_web.xlsx
+++ b/Data/LoginUserData_web.xlsx
@@ -4,61 +4,44 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="login_sheet1" sheetId="11" r:id="rId1"/>
-    <sheet name="gload_login" sheetId="12" r:id="rId2"/>
+    <sheet name="gload_login" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UserName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LinkName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lulei1020@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lulei1020!*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>******</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -115,10 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,53 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,29 +421,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>111111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>